--- a/leanCrm/datanew/physicalAreas/PhysicalSpacesTypes/relations/PhysicalSpacesTypesR5PhysicalSpaces.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalSpacesTypes/relations/PhysicalSpacesTypesR5PhysicalSpaces.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="59">
   <si>
     <t>From</t>
   </si>
@@ -60,21 +60,6 @@
     <t>Fachada</t>
   </si>
   <si>
-    <t>Ingreso Escalera 1 Piso</t>
-  </si>
-  <si>
-    <t>Escalera 1 Piso</t>
-  </si>
-  <si>
-    <t>Pasillo 2 piso</t>
-  </si>
-  <si>
-    <t>placa 2 piso</t>
-  </si>
-  <si>
-    <t>placa 3 piso</t>
-  </si>
-  <si>
     <t>Local L1</t>
   </si>
   <si>
@@ -187,13 +172,37 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Area Común</t>
+  </si>
+  <si>
+    <t>Area Común CL26</t>
+  </si>
+  <si>
+    <t>Fachada CL26</t>
+  </si>
+  <si>
+    <t>Ingreso Escalera 1 Piso CL26</t>
+  </si>
+  <si>
+    <t>Escalera 1 Piso CL26</t>
+  </si>
+  <si>
+    <t>Pasillo 2 piso CL26</t>
+  </si>
+  <si>
+    <t>placa 2 piso CL26</t>
+  </si>
+  <si>
+    <t>placa 3 piso CL26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +342,14 @@
       <color rgb="FF5B5B5B"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -676,9 +693,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1000,9 +1018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1010,7 +1030,7 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1041,26 +1061,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -1071,19 +1088,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -1094,19 +1114,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -1117,19 +1137,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -1140,19 +1160,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -1163,19 +1183,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -1186,19 +1206,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -1209,19 +1229,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -1232,19 +1252,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -1255,19 +1275,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -1278,19 +1298,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -1301,19 +1321,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -1324,19 +1344,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -1347,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -1370,19 +1390,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -1393,19 +1413,19 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -1416,19 +1436,19 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -1439,19 +1459,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -1462,19 +1482,19 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -1485,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
@@ -1494,10 +1514,10 @@
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
@@ -1508,19 +1528,19 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -1531,19 +1551,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
@@ -1554,19 +1574,19 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -1577,19 +1597,19 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -1600,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -1623,19 +1643,19 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -1646,19 +1666,19 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -1669,19 +1689,19 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -1692,19 +1712,19 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -1715,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
@@ -1738,19 +1758,19 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -1761,19 +1781,19 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -1784,21 +1804,44 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s">
         <v>11</v>
       </c>
     </row>

--- a/leanCrm/datanew/physicalAreas/PhysicalSpacesTypes/relations/PhysicalSpacesTypesR5PhysicalSpaces.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalSpacesTypes/relations/PhysicalSpacesTypesR5PhysicalSpaces.xlsx
@@ -13,13 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="PhysicalSpacesTypesR5PhysicalSp" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="70">
   <si>
     <t>From</t>
   </si>
@@ -51,9 +53,6 @@
     <t>PhysicalSpaces</t>
   </si>
   <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
     <t>Uno a Muchos Bidirecccional No.5</t>
   </si>
   <si>
@@ -114,12 +113,6 @@
     <t>Cocina A201</t>
   </si>
   <si>
-    <t>Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Alcoba Secundaria  A201</t>
-  </si>
-  <si>
     <t>Baño A201</t>
   </si>
   <si>
@@ -135,12 +128,6 @@
     <t>Baño Cocina A202</t>
   </si>
   <si>
-    <t>Alcoba Principal A202</t>
-  </si>
-  <si>
-    <t>Alcoba Secundaria A202</t>
-  </si>
-  <si>
     <t>Local</t>
   </si>
   <si>
@@ -159,43 +146,91 @@
     <t>Alcoba</t>
   </si>
   <si>
+    <t>Escaleras</t>
+  </si>
+  <si>
+    <t>Pasillo</t>
+  </si>
+  <si>
+    <t>placa</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Area Común CR23</t>
+  </si>
+  <si>
+    <t>Fachada CR23</t>
+  </si>
+  <si>
+    <t>Ingreso Escalera 1 Piso CR23</t>
+  </si>
+  <si>
+    <t>Escalera 1 Piso CR23</t>
+  </si>
+  <si>
+    <t>Pasillo 2 piso CR23</t>
+  </si>
+  <si>
+    <t>Placa 2 piso CR23</t>
+  </si>
+  <si>
+    <t>Placa 3 piso CR23</t>
+  </si>
+  <si>
+    <t>Garaje L1</t>
+  </si>
+  <si>
+    <t>Pasillo A201</t>
+  </si>
+  <si>
+    <t>Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Balcon A201</t>
+  </si>
+  <si>
+    <t>Pasillo A202</t>
+  </si>
+  <si>
+    <t>Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Balcon A202</t>
+  </si>
+  <si>
+    <t>Garajes</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Patios</t>
+  </si>
+  <si>
+    <t>Estudio</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Comedor</t>
+  </si>
+  <si>
     <t>Patio</t>
   </si>
   <si>
-    <t>Escaleras</t>
-  </si>
-  <si>
-    <t>Pasillo</t>
-  </si>
-  <si>
-    <t>placa</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>Balcon</t>
   </si>
   <si>
     <t>Area Común</t>
-  </si>
-  <si>
-    <t>Area Común CL26</t>
-  </si>
-  <si>
-    <t>Fachada CL26</t>
-  </si>
-  <si>
-    <t>Ingreso Escalera 1 Piso CL26</t>
-  </si>
-  <si>
-    <t>Escalera 1 Piso CL26</t>
-  </si>
-  <si>
-    <t>Pasillo 2 piso CL26</t>
-  </si>
-  <si>
-    <t>placa 2 piso CL26</t>
-  </si>
-  <si>
-    <t>placa 3 piso CL26</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,474 +1096,471 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
+      <c r="B4" t="s">
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
+      <c r="B8" t="s">
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
+      <c r="B9" t="s">
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
+      <c r="B10" t="s">
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
+      <c r="B11" t="s">
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
+      <c r="B12" t="s">
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
+      <c r="B14" t="s">
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>50</v>
+      <c r="B15" t="s">
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
+      <c r="B16" t="s">
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
+      <c r="B17" t="s">
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
+      <c r="B18" t="s">
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
+      <c r="B19" t="s">
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>50</v>
+      <c r="B20" t="s">
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>50</v>
+      <c r="B21" t="s">
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
+      <c r="B22" t="s">
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -1537,228 +1569,228 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>50</v>
+      <c r="B23" t="s">
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>50</v>
+      <c r="B24" t="s">
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
+      <c r="B25" t="s">
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
+      <c r="B26" t="s">
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>50</v>
+      <c r="B27" t="s">
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>50</v>
+      <c r="B28" t="s">
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>50</v>
+      <c r="B29" t="s">
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>50</v>
+      <c r="B30" t="s">
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>50</v>
+      <c r="B31" t="s">
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>50</v>
+      <c r="B32" t="s">
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
@@ -1767,86 +1799,715 @@
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>50</v>
+      <c r="B33" t="s">
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>50</v>
+      <c r="B34" t="s">
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
         <v>50</v>
       </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
         <v>39</v>
       </c>
-      <c r="H35" t="s">
-        <v>11</v>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection sqref="A1:F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F1:F40">
+    <sortCondition ref="F1:F40"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>